--- a/biology/Zoologie/Rob_Hume/Rob_Hume.xlsx
+++ b/biology/Zoologie/Rob_Hume/Rob_Hume.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Rob Hume, né le 15 juin 1950, est un ornithologue britannique. Il a écrit également des ouvrages sur des sujets d'histoire naturelle et a animé également des voyages d'observation.
 Il est éditeur depuis 1989 à la Royal Society for the Protection of Birds, puis a collaboré à la direction de British Birds. Également membre de la British Birds Rarities Committe. Il a quitté ces deux fonctions en 1997.
@@ -512,7 +524,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>(en) Life With Birds (autobiographie), David &amp; Charles, 2005,  (ISBN 0-7153-2181-1)</t>
         </is>
